--- a/documents/论文/res/实验数据-超市场景.xlsx
+++ b/documents/论文/res/实验数据-超市场景.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\source\GitRepo\2023-Graduation-Project-PeopleTrafficAnalize\documents\论文\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68CBD0D1-5B9F-4826-BD77-8E8F6CA0C9CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17537164-CC79-4D4B-948A-45E8D24B8D9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="285" windowWidth="29040" windowHeight="15615" tabRatio="541" firstSheet="2" activeTab="5" xr2:uid="{7DC77F0E-B47D-4EBC-8E24-78D8B7B00632}"/>
+    <workbookView xWindow="14400" yWindow="465" windowWidth="14400" windowHeight="15285" tabRatio="541" firstSheet="2" activeTab="5" xr2:uid="{7DC77F0E-B47D-4EBC-8E24-78D8B7B00632}"/>
   </bookViews>
   <sheets>
     <sheet name="人流量统计模块" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,8 @@
     <sheet name="（捏）人流量统计" sheetId="3" r:id="rId3"/>
     <sheet name="实际数据" sheetId="4" r:id="rId4"/>
     <sheet name="MOT20数据集" sheetId="5" r:id="rId5"/>
-    <sheet name="MOT20与其他跟踪器作比较" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId6"/>
+    <sheet name="MOT20与其他跟踪器作比较" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="208">
   <si>
     <t>摄像头</t>
   </si>
@@ -719,6 +720,38 @@
   </si>
   <si>
     <t>ours</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>行人ID</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cam-1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cam-2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cam-3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>被遮挡而无法截图</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>重识别失败</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功重识别，得到正确身份</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功进入统计</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -838,7 +871,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -881,6 +914,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -914,7 +953,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1021,6 +1060,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2261,9 +2309,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A93CD491-CA7C-4B5B-96BC-95F2F2AD9A63}">
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A20"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2809,10 +2855,324 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97C4DF54-9CDD-47D4-A114-23EFA113FCFB}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="25.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>207</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>5</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>207</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>8</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>207</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>21</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>207</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>25</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>207</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>34</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>207</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>43</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>207</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>58</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>207</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>61</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>207</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>204</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>77</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>207</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>123</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>207</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>183</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>207</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>186</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>207</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>188</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>207</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="D15" s="36" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>190</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>207</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="D16" s="36" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>236</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>207</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>249</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>207</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="D18" s="36" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>250</v>
+      </c>
+      <c r="B19" s="36" t="s">
+        <v>207</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="D19" s="36" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>267</v>
+      </c>
+      <c r="B20" s="36" t="s">
+        <v>207</v>
+      </c>
+      <c r="C20" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="D20" s="36" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>270</v>
+      </c>
+      <c r="B21" s="36" t="s">
+        <v>207</v>
+      </c>
+      <c r="C21" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="D21" s="36" t="s">
+        <v>206</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{252A8E38-5589-43DE-92E2-8B9C54DCAA8E}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
